--- a/spreadsheet/contacts.xlsx
+++ b/spreadsheet/contacts.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\repo\AccessDatabaseInterface\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B154DA7-8782-4D3E-9827-A079E6373BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089E2FE-357F-4FB7-B3C7-062D89948527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" xr2:uid="{E6197176-6FCF-4101-84F7-F17330E806CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Contacts">Contacts!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>ContactID</t>
   </si>
@@ -153,6 +157,87 @@
   </si>
   <si>
     <t>321 Elm St</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>LMN Corp</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>james.chen@lmn.com</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>789 Oak St</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>DEF Inc.</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>emily.davis@def.com</t>
+  </si>
+  <si>
+    <t>555-2468</t>
+  </si>
+  <si>
+    <t>246 Pine St</t>
+  </si>
+  <si>
+    <t>Skilled in Photoshop</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>GHI Ltd.</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>alex.kim@ghi.com</t>
+  </si>
+  <si>
+    <t>555-1357</t>
+  </si>
+  <si>
+    <t>357 Maple Ave</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>JKL Corp</t>
+  </si>
+  <si>
+    <t>sarah.singh@jkl.com</t>
+  </si>
+  <si>
+    <t>555-3690</t>
+  </si>
+  <si>
+    <t>369 Cedar St</t>
   </si>
 </sst>
 </file>
@@ -174,18 +259,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -213,17 +298,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,167 +626,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521ED79-8ED0-46EA-8D76-AFB7CE57B681}">
-  <dimension ref="G8:O12"/>
+  <dimension ref="G8:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G8" sqref="G8:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="8" spans="7:15" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="7:15" ht="60" x14ac:dyDescent="0.45">
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="7:15" ht="30" x14ac:dyDescent="0.45">
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="7:15" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="7:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" ht="30" x14ac:dyDescent="0.45">
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" ht="30" x14ac:dyDescent="0.45">
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="mailto:john.smith@acme.com" xr:uid="{F529E959-914E-4F57-8C5B-4658DF840A79}"/>
-    <hyperlink ref="L10" r:id="rId2" display="mailto:jane.doe@xyz.com" xr:uid="{38E702F4-E3AC-4239-AD23-C16ECF561A72}"/>
-    <hyperlink ref="L11" r:id="rId3" display="mailto:bob.johnson@abc.com" xr:uid="{986653BC-8B12-40C2-8894-6F74C4734726}"/>
-    <hyperlink ref="L12" r:id="rId4" display="mailto:sarah.lee@pqr.com" xr:uid="{51AD3D0E-0510-4751-9078-D80B680D6314}"/>
+    <hyperlink ref="L9" r:id="rId1" display="mailto:john.smith@acme.com" xr:uid="{DAA70CBD-DF55-434B-BE5A-347505A44FAF}"/>
+    <hyperlink ref="L10" r:id="rId2" display="mailto:jane.doe@xyz.com" xr:uid="{A1B264C2-08D3-4A08-8410-76EFBE00EDC7}"/>
+    <hyperlink ref="L11" r:id="rId3" display="mailto:bob.johnson@abc.com" xr:uid="{A974DA56-1BB9-4A19-A7B7-8D91709902D2}"/>
+    <hyperlink ref="L12" r:id="rId4" display="mailto:sarah.lee@pqr.com" xr:uid="{F0CE7ECA-EA75-44EE-AD50-DD6D1D1A78CF}"/>
+    <hyperlink ref="L13" r:id="rId5" display="mailto:james.chen@lmn.com" xr:uid="{C1352DB8-C0F3-4DAE-BCEE-6B172AEBC71B}"/>
+    <hyperlink ref="L14" r:id="rId6" display="mailto:emily.davis@def.com" xr:uid="{EA91E1C4-9968-42C1-A5E2-FA5092187A85}"/>
+    <hyperlink ref="L15" r:id="rId7" display="mailto:alex.kim@ghi.com" xr:uid="{5459B880-73F2-4CAF-B725-5840AF9E29BC}"/>
+    <hyperlink ref="L16" r:id="rId8" display="mailto:sarah.singh@jkl.com" xr:uid="{FF9A4309-4E1E-4795-A12C-E91719DCAAB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.45">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.45">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.45">
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.45">
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L9" r:id="rId1" display="mailto:john.smith@acme.com" xr:uid="{A23DB316-1093-48DA-802B-97E723F511E6}"/>
+    <hyperlink ref="L10" r:id="rId2" display="mailto:jane.doe@xyz.com" xr:uid="{0E07F768-6DAD-4CB3-8C25-A6180EE4F148}"/>
+    <hyperlink ref="L11" r:id="rId3" display="mailto:bob.johnson@abc.com" xr:uid="{635F424A-603E-4459-AFBC-487D7BE3DB8A}"/>
+    <hyperlink ref="L12" r:id="rId4" display="mailto:sarah.lee@pqr.com" xr:uid="{CD822072-D21A-4F74-A9B0-6267B0085BE6}"/>
+    <hyperlink ref="L13" r:id="rId5" display="mailto:james.chen@lmn.com" xr:uid="{49AD24D8-7C8F-430D-B93D-99FDC161E18F}"/>
+    <hyperlink ref="L14" r:id="rId6" display="mailto:emily.davis@def.com" xr:uid="{AC049301-ED6C-46D6-9795-5712FF341EA7}"/>
+    <hyperlink ref="L15" r:id="rId7" display="mailto:alex.kim@ghi.com" xr:uid="{CB0AFF66-8883-4CAB-8CDF-961A92112E65}"/>
+    <hyperlink ref="L16" r:id="rId8" display="mailto:sarah.singh@jkl.com" xr:uid="{44D1A1D1-25F5-47AD-84A0-663B6B30E3C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>